--- a/Assets/JoyconFrameWork/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/JoyconFrameWork/3_PoolManager/Table/PoolTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,38 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Particle1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Particle2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네모</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동그라미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이펙트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,27 +37,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CanvasImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poolobject/gameobj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poolobject/effect1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poolobject/effect2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_Spark</t>
+  </si>
+  <si>
+    <t>Hit_Star</t>
+  </si>
+  <si>
+    <t>PoolObject/Effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoolObject/Blocks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovingBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PointerEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +452,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -493,13 +467,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -510,16 +484,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -527,16 +498,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -544,16 +512,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -561,16 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -578,16 +540,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/JoyconFrameWork/3_PoolManager/Table/PoolTable.xlsx
+++ b/Assets/JoyconFrameWork/3_PoolManager/Table/PoolTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>PointerEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoolObject/Blocks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +456,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
